--- a/ProjectFramework/Assets/Cehua/DataTable/logic/Particle.xlsx
+++ b/ProjectFramework/Assets/Cehua/DataTable/logic/Particle.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>c</t>
   </si>
@@ -34,16 +34,7 @@
     <t>分组名称</t>
   </si>
   <si>
-    <t>是否允许多个实例</t>
-  </si>
-  <si>
-    <t>是否暂停被其覆盖的界面</t>
-  </si>
-  <si>
-    <t>逻辑所在Dll</t>
-  </si>
-  <si>
-    <t>是否需要高斯模糊背景</t>
+    <t>逻辑类名</t>
   </si>
   <si>
     <t>Id</t>
@@ -58,16 +49,7 @@
     <t>GroupName</t>
   </si>
   <si>
-    <t>AllowMultiInstance</t>
-  </si>
-  <si>
-    <t>PauseCoveredUIForm</t>
-  </si>
-  <si>
-    <t>DllName</t>
-  </si>
-  <si>
-    <t>NeedBlurBg</t>
+    <t>ClassName</t>
   </si>
   <si>
     <t>int</t>
@@ -79,79 +61,25 @@
     <t>string</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>_options</t>
   </si>
   <si>
-    <t>通用文字提示</t>
-  </si>
-  <si>
-    <t>UICommonTextTip</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>HotFixEntry</t>
-  </si>
-  <si>
-    <t>通用确定取消提示</t>
-  </si>
-  <si>
-    <t>UICommonConfirm</t>
-  </si>
-  <si>
-    <t>Above</t>
-  </si>
-  <si>
-    <t>文本说明UI</t>
-  </si>
-  <si>
-    <t>UITipTxt</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>通用切换LoadingUI</t>
-  </si>
-  <si>
-    <t>UICommonLoading</t>
-  </si>
-  <si>
-    <t>登录UI</t>
-  </si>
-  <si>
-    <t>UILoginMain</t>
-  </si>
-  <si>
-    <t>网络等待UI</t>
-  </si>
-  <si>
-    <t>UINetWaitMsg</t>
-  </si>
-  <si>
-    <t>网络等待连接UI</t>
-  </si>
-  <si>
-    <t>UIConnectNet</t>
-  </si>
-  <si>
-    <t>设置UI</t>
-  </si>
-  <si>
-    <t>UISetting</t>
-  </si>
-  <si>
-    <t>主界面UI</t>
-  </si>
-  <si>
-    <t>UIMain</t>
-  </si>
-  <si>
-    <t>HotFixLogic</t>
+    <t>测试UI特效</t>
+  </si>
+  <si>
+    <t>Chouka_star</t>
+  </si>
+  <si>
+    <t>ParticleUI</t>
+  </si>
+  <si>
+    <t>CParticleUIEntity</t>
+  </si>
+  <si>
+    <t>测试UI特效2</t>
+  </si>
+  <si>
+    <t>Huizhang_shengji01</t>
   </si>
 </sst>
 </file>
@@ -1091,28 +1019,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
-    <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1122,17 +1046,8 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1148,307 +1063,81 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" customFormat="1" spans="1:5">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="12" customHeight="1" spans="1:8">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="12" ht="12" customHeight="1"/>
   </sheetData>
   <autoFilter ref="D2:D14">
     <extLst/>
